--- a/DB/Book1.xlsx
+++ b/DB/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp81\htdocs\app.windsor\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5307A84A-E1AA-4C01-B75D-A7EB1ED36C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3BF552-15C1-4D5B-B0E7-272DD35D9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{7159C95B-F638-4304-ABDE-7A3C2A915BD3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>no</t>
   </si>
@@ -85,13 +85,19 @@
   </si>
   <si>
     <t>SAVE</t>
+  </si>
+  <si>
+    <t>Tahun ajar</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,57 +462,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10650DF2-B5F1-43B7-9EC1-FB84B0EE86B5}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>80</v>
@@ -506,10 +519,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -520,10 +533,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>80</v>
@@ -534,10 +547,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>80</v>
@@ -548,10 +561,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -562,10 +575,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -576,10 +589,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -590,10 +603,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -604,10 +617,10 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>80</v>
@@ -618,10 +631,10 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>80</v>
@@ -632,10 +645,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>80</v>
@@ -646,10 +659,10 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -660,31 +673,47 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="127" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>